--- a/sample-tests.xlsx
+++ b/sample-tests.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Invalid path</t>
   </si>
   <si>
-    <t xml:space="preserve">$baseUrl/marketx/BTC/AUD/tick</t>
+    <t xml:space="preserve">$baseUrl$/marketx/BTC/AUD/tick</t>
   </si>
   <si>
     <t xml:space="preserve">GET</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Valid path</t>
   </si>
   <si>
-    <t xml:space="preserve">$baseUrl/market/BTC/AUD/tick</t>
+    <t xml:space="preserve">$baseUrl$/market/BTC/AUD/tick</t>
   </si>
   <si>
     <t xml:space="preserve">{currency:"AUD", instrument:"BTC"}</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Create post</t>
   </si>
   <si>
-    <t xml:space="preserve">$fakeServer/posts</t>
+    <t xml:space="preserve">$fakeServer$/posts</t>
   </si>
   <si>
     <t xml:space="preserve">POST</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">Updated post</t>
   </si>
   <si>
-    <t xml:space="preserve">$fakeServer/posts/1</t>
+    <t xml:space="preserve">$fakeServer$/posts/1</t>
   </si>
   <si>
     <t xml:space="preserve">PUT</t>
@@ -189,7 +189,7 @@
     <t xml:space="preserve">Retrieve created post</t>
   </si>
   <si>
-    <t xml:space="preserve">$fakeServer/posts/$postId</t>
+    <t xml:space="preserve">$fakeServer$/posts/$postId$</t>
   </si>
 </sst>
 </file>
@@ -204,6 +204,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -292,24 +293,24 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7091836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.280612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="115.30612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.20408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="183.586734693878"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.1428571428571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9642857142857"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="113.933673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="181.561224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
